--- a/biology/Zoologie/Toshitaka_Hidaka/Toshitaka_Hidaka.xlsx
+++ b/biology/Zoologie/Toshitaka_Hidaka/Toshitaka_Hidaka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Toshitaka Hidaka (日高 敏隆?), Hidaka Toshitaka; 26 février 1930 - 14 novembre 2009, est un auteur et éthologue japonais.
 Hidaka étudie l'ingénierie à l'Université de Tokyo. Son intérêt précoce pour les animaux conduit à une longue carrière en tant que spécialiste du comportement. Il contribue à la fondation de la Société japonaise éthologique en 1982 et publie des ouvrages comme Konchu to yū sekai (1973), Esoroji wa dō iu gakumon ka (1976), Dobutsu wa naze dobutsu ni nattaka (1976), Chō wa naze tobu ka (« Pourquoi les papillons volent-ils? », prix Mainichi de la culture), Dōbutsu wa nani o mezasu no ka (« Vers quoi tendent les animaux ») et Nihon dōbutsu daihyakka (« Encyclopédie des animaux au Japon », 1996).
@@ -512,7 +524,9 @@
           <t>Source de la traduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(de) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en allemand intitulé « Toshitaka Hidaka » (voir la liste des auteurs).
 Notices d'autorité : VIAF ISNI LCCN GND Italie Japon CiNii Pays-Bas Corée du Sud WorldCat 
